--- a/mbs-perturbation/bloated/multinomialNB/bloated-multinomialNB-results.xlsx
+++ b/mbs-perturbation/bloated/multinomialNB/bloated-multinomialNB-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06417112299465241</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5656108597285068</v>
+        <v>0.6194029850746269</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2316417910447761</v>
+        <v>0.2605676945068409</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5656108597285068</v>
+        <v>0.6194029850746269</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1805555555555556</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8665158371040724</v>
+        <v>0.933457711442786</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5759176777760712</v>
+        <v>0.8193384223918576</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8665158371040724</v>
+        <v>0.933457711442786</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.28125</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8229638009049773</v>
+        <v>0.8948439620081411</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6737397673416631</v>
+        <v>0.6892406918792143</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8229638009049773</v>
+        <v>0.8948439620081411</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3863636363636364</v>
+        <v>0.5038444142921755</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4218362282878412</v>
+        <v>0.4831560283687943</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3863636363636364</v>
+        <v>0.5038444142921755</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.5341666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5581542351453855</v>
+        <v>0.545343137254902</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.5341666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3051953357100416</v>
+        <v>0.2389416995299349</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6359831345125462</v>
+        <v>0.6971431478968793</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4922579399191475</v>
+        <v>0.5595291948803218</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6359831345125462</v>
+        <v>0.6971431478968793</v>
       </c>
     </row>
   </sheetData>
